--- a/P3/Reports/Data.xlsx
+++ b/P3/Reports/Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>SFO</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>recursive_best_first_search - h_1</t>
+  </si>
+  <si>
+    <t>Num</t>
   </si>
 </sst>
 </file>
@@ -178,10 +181,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -473,12 +476,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -513,12 +516,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -567,12 +570,12 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -639,44 +642,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -684,22 +691,25 @@
         <v>17</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>43</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>56</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>180</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -707,22 +717,25 @@
         <v>18</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>1458</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1459</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5960</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.81410000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -730,22 +743,25 @@
         <v>19</v>
       </c>
       <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>22</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>84</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.29E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -753,22 +769,25 @@
         <v>20</v>
       </c>
       <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <v>101</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>271</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>414</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>50</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>8.0399999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -776,22 +795,25 @@
         <v>21</v>
       </c>
       <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>55</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>57</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>224</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -799,22 +821,25 @@
         <v>32</v>
       </c>
       <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
         <v>4229</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4230</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17023</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2.4195000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -825,19 +850,22 @@
         <v>7</v>
       </c>
       <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
         <v>9</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>28</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -845,22 +873,25 @@
         <v>28</v>
       </c>
       <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
         <v>55</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>57</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>224</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>6</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3.27E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -868,30 +899,36 @@
         <v>29</v>
       </c>
       <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>41</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>43</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>170</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3.3300000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -899,171 +936,321 @@
         <v>17</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>3346</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4612</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>30534</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>9</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>12.180199999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>107</v>
+      </c>
+      <c r="E14">
+        <v>108</v>
+      </c>
+      <c r="F14">
+        <v>959</v>
+      </c>
+      <c r="G14">
+        <v>105</v>
+      </c>
+      <c r="H14">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>213491</v>
+      </c>
+      <c r="E15">
+        <v>1967093</v>
+      </c>
+      <c r="F15">
+        <v>1967471</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>737.75170000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>4853</v>
+      </c>
+      <c r="E16">
+        <v>4855</v>
+      </c>
+      <c r="F16">
+        <v>44041</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>9.8886000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>998</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18">
+        <v>8982</v>
+      </c>
+      <c r="G18">
+        <v>21</v>
+      </c>
+      <c r="H18">
+        <v>2.1608000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>4853</v>
+      </c>
+      <c r="E19">
+        <v>4855</v>
+      </c>
+      <c r="F19">
+        <v>44041</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>10.0139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>1450</v>
+      </c>
+      <c r="E20">
+        <v>1452</v>
+      </c>
+      <c r="F20">
+        <v>13303</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>3.5404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1115,10 +1302,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/P3/Reports/Data.xlsx
+++ b/P3/Reports/Data.xlsx
@@ -648,7 +648,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1153,6 +1153,21 @@
       <c r="C22">
         <v>1</v>
       </c>
+      <c r="D22">
+        <v>14120</v>
+      </c>
+      <c r="E22">
+        <v>17673</v>
+      </c>
+      <c r="F22">
+        <v>124926</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>98.289500000000004</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -1175,6 +1190,21 @@
       <c r="C24">
         <v>3</v>
       </c>
+      <c r="D24">
+        <v>292</v>
+      </c>
+      <c r="E24">
+        <v>293</v>
+      </c>
+      <c r="F24">
+        <v>2388</v>
+      </c>
+      <c r="G24">
+        <v>288</v>
+      </c>
+      <c r="H24">
+        <v>1.1559999999999999</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -1197,6 +1227,21 @@
       <c r="C26">
         <v>5</v>
       </c>
+      <c r="D26">
+        <v>18223</v>
+      </c>
+      <c r="E26">
+        <v>18225</v>
+      </c>
+      <c r="F26">
+        <v>159618</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <v>54.018900000000002</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -1219,6 +1264,21 @@
       <c r="C28">
         <v>7</v>
       </c>
+      <c r="D28">
+        <v>5578</v>
+      </c>
+      <c r="E28">
+        <v>5580</v>
+      </c>
+      <c r="F28">
+        <v>49150</v>
+      </c>
+      <c r="G28">
+        <v>22</v>
+      </c>
+      <c r="H28">
+        <v>17.579599999999999</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -1230,6 +1290,21 @@
       <c r="C29">
         <v>8</v>
       </c>
+      <c r="D29">
+        <v>18223</v>
+      </c>
+      <c r="E29">
+        <v>18225</v>
+      </c>
+      <c r="F29">
+        <v>159618</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>57.102699999999999</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -1240,6 +1315,21 @@
       </c>
       <c r="C30">
         <v>9</v>
+      </c>
+      <c r="D30">
+        <v>5040</v>
+      </c>
+      <c r="E30">
+        <v>5042</v>
+      </c>
+      <c r="F30">
+        <v>44944</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>17.901399999999999</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">

--- a/P3/Reports/Data.xlsx
+++ b/P3/Reports/Data.xlsx
@@ -648,7 +648,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,6 +927,21 @@
       <c r="C11">
         <v>10</v>
       </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>0.89939999999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1142,6 +1157,21 @@
       <c r="C21">
         <v>10</v>
       </c>
+      <c r="D21">
+        <v>86</v>
+      </c>
+      <c r="E21">
+        <v>88</v>
+      </c>
+      <c r="F21">
+        <v>841</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>149.0453</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -1341,6 +1371,21 @@
       </c>
       <c r="C31">
         <v>10</v>
+      </c>
+      <c r="D31">
+        <v>316</v>
+      </c>
+      <c r="E31">
+        <v>318</v>
+      </c>
+      <c r="F31">
+        <v>2912</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <v>764.67840000000001</v>
       </c>
     </row>
   </sheetData>
